--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -142,15 +142,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -142,15 +142,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao aluno o conhecimento das principais técnicas de caracterização física e química de materiais.</t>
+    <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6495737 - Durval Rodrigues Junior</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Análise granulométrica e superficial. Análises microestruturais. Análises térmicas. Reometria.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,12 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Análise granulométrica. Adsorção BET, porosidade e picnometria. 
-Análises microestruturais: difração de raios X, figura de Laue; espalhamento de raios X (SAXS). Difração de elétrons. Microscopia Óptica. Microscopia eletrônica, microanálise de raios X (EDX e WDX). 
-Análises térmicas: Análise térmica diferencial (DTA), calorimetria exploratória diferencial (DSC) e termogravimetria (TGA).
-Reometria de líquidos, soluções e pastas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,34 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>LOWELL, S.; SHIELDS, J. E.; THOMAS, M. A.; THOMMES, M. Characterization of Porous Solids and Powders: Surface Area, Pore Size and Density, Springer, 2010.
-PADILHA, A.F. Técnicas de Análise Microestrutural, Ed. Hemus, São Paulo, 1985.
-MURPHY, D. B. Fundamentals of Light Microscopy and Electronic Imaging, Wiley-Liss, 2001.
-WU, Q.; MERCHANT, F.; CASTLEMAN, K. Microscope Image Processing, Academic Press, 2008.
-CULLITY, B. D.; STOCK, S. R. Elements of X-Ray Diffraction, Prentice Hall, 2001.
-GOLDSTEIN, J.; et al., Scanning Electron Microscopy and X-ray Microanalysis, Springer, 2003.
-YACOBI, B. G.; HOLT, D. B.; KAZMERSKI, L. L. Microanalysis of Solids. Plenum Press, 1994.
-HATAKEYAMA, T.; ZHENHAI, L. Handbook of Thermal Analysis, Wiley, 1999.
-HAINES, P. J. Principles of Thermal Analysis and Calorimetry, Royal Society of Chemistry, 2002.
-SCHRAMM, G. Reologia e Reometria. Editora Artliber, 2006.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -507,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,122 +611,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -121,15 +121,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -121,15 +121,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the student with knowledge of the main techniques of physical and chemical characterization of materials.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Granulometric and surface analysis. Microstructural analyses. Thermal analysis. Rheometry.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Grain size analysis. BET adsorption, porosity and pycnometry.Microstructural analysis: X-ray diffraction, Laue figure; X-ray scattering (SAXS). Electron diffraction. Optical Microscopy. Electron microscopy, X-ray microanalysis (EDX and WDX).Thermal analysis: Differential thermal analysis (DTA), differential scanning calorimetry (DSC) and thermogravimetry (TGA).Rheometry of liquids, solutions and pastes.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -605,31 +614,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -640,17 +661,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -661,64 +688,64 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -130,15 +130,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -130,15 +130,15 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOM3016 -  Introdução à  Ciência dos Materiais  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3229 -  Métodos Experimentais da Física II  (Indicação de Conjunto)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOM3246.xlsx
+++ b/assets/disciplinas/LOM3246.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao aluno o conhecimento das principais técnicas de caracterização física e química de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with knowledge of the main techniques of physical and chemical characterization of materials.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6495737 - Durval Rodrigues Junior</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with knowledge of the main techniques of physical and chemical characterization of materials.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Análise granulométrica e superficial. Análises microestruturais. Análises térmicas. Reometria.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Análise granulométrica. Adsorção BET, porosidade e picnometria. Análises microestruturais: difração de raios X, figura de Laue; espalhamento de raios X (SAXS). Difração de elétrons. Microscopia Óptica. Microscopia eletrônica, microanálise de raios X (EDX e WDX). Análises térmicas: Análise térmica diferencial (DTA), calorimetria exploratória diferencial (DSC) e termogravimetria (TGA).Reometria de líquidos, soluções e pastas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,34 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Listas de exercícios, provas escritas, apresentação de seminário, aulas de laboratório e preparação de relatórios.</t>
+    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>LOWELL, S.; SHIELDS, J. E.; THOMAS, M. A.; THOMMES, M. Characterization of Porous Solids and Powders: Surface Area, Pore Size and Density, Springer, 2010.
+PADILHA, A.F. Técnicas de Análise Microestrutural, Ed. Hemus, São Paulo, 1985.
+MURPHY, D. B. Fundamentals of Light Microscopy and Electronic Imaging, Wiley-Liss, 2001.
+WU, Q.; MERCHANT, F.; CASTLEMAN, K. Microscope Image Processing, Academic Press, 2008.
+CULLITY, B. D.; STOCK, S. R. Elements of X-Ray Diffraction, Prentice Hall, 2001.
+GOLDSTEIN, J.; et al., Scanning Electron Microscopy and X-ray Microanalysis, Springer, 2003.
+YACOBI, B. G.; HOLT, D. B.; KAZMERSKI, L. L. Microanalysis of Solids. Plenum Press, 1994.
+HATAKEYAMA, T.; ZHENHAI, L. Handbook of Thermal Analysis, Wiley, 1999.
+HAINES, P. J. Principles of Thermal Analysis and Calorimetry, Royal Society of Chemistry, 2002.
+SCHRAMM, G. Reologia e Reometria. Editora Artliber, 2006.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -626,37 +644,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -670,82 +685,93 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
